--- a/EVRegistrations.xlsx
+++ b/EVRegistrations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos C\Code\SavvyCoders\Homework\section1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos C\Code\SavvyCoders\Class_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3566E79-C366-4A75-B6CE-4AA04188A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89284A56-45CD-4519-9364-AFBAD653F25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1360" windowWidth="15940" windowHeight="10170" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
+    <workbookView xWindow="-21180" yWindow="-615" windowWidth="15945" windowHeight="10170" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="EV Registration Counts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
   <si>
     <t>Electric Vehicle Registrations by State</t>
   </si>
@@ -232,6 +232,162 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,817,678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 728,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,561,516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,947,036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38,066,920</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,197,580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,592,053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 917,060</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 633,736</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19,361,792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,907,756</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,392,704</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,599,464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12,868,747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,542,411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,078,116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,882,946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,383,272</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,601,049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,328,535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,887,776</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,657,291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,889,024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,383,661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,984,345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,028,076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,006,370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,855,617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,761,584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,321,069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,874,374</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,080,085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19,594,330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,750,405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 704,925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11,560,380</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,818,851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,900,343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12,758,729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,053,252</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,727,273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 834,708</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,451,365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26,092,033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,858,111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 626,358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,185,131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,899,123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,853,881</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,724,692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 575,251</t>
   </si>
 </sst>
 </file>
@@ -242,7 +398,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +459,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -405,13 +580,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -441,13 +629,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2577,13 +2789,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>88901</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>149572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>134620</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -2649,13 +2861,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -2687,20 +2899,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8702B03-52B4-48DF-BB63-38370E34A24F}" name="Table2" displayName="Table2" ref="B3:C55" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8702B03-52B4-48DF-BB63-38370E34A24F}" name="Table2" displayName="Table2" ref="B3:C55" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{0FDFFB1B-C6F2-446C-8407-062E00B7616D}" name="State" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{627CF088-32C8-47D3-B924-6515CF084AFA}" name="Registration Count" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{0FDFFB1B-C6F2-446C-8407-062E00B7616D}" name="State" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{627CF088-32C8-47D3-B924-6515CF084AFA}" name="Registration Count" dataDxfId="8" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCA4E4AF-9921-472D-8F86-ACC646C95BF8}" name="Table23" displayName="Table23" ref="A1:B53" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{8A5D1FDC-3389-4CBC-A99E-43CD9877C6B4}" name="State" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{63850CE8-0589-469D-989B-5D8FEB2622C3}" name="Registration Count" dataDxfId="0" dataCellStyle="Comma"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCA4E4AF-9921-472D-8F86-ACC646C95BF8}" name="Table23" displayName="Table23" ref="A1:C53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{8A5D1FDC-3389-4CBC-A99E-43CD9877C6B4}" name="State" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{63850CE8-0589-469D-989B-5D8FEB2622C3}" name="Registration Count" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{95D2DE64-49B8-477E-A8DC-8E6E88AA921E}" name="Population" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3608,97 +3821,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C91AED0-4DD2-45EF-8BB2-503FB6D17580}">
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" customWidth="1"/>
-    <col min="24" max="24" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="23" customWidth="1"/>
+    <col min="25" max="25" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="15">
+      <c r="F1" s="15">
         <f>MAX(B2:B52)</f>
         <v>563070</v>
       </c>
-      <c r="F1" t="str">
-        <f>_xlfn.XLOOKUP(E1,B2:B52,A2:A52)</f>
+      <c r="G1" t="str">
+        <f>_xlfn.XLOOKUP(F1,B2:B52,A2:A52)</f>
         <v>California</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16">
         <v>4750</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <f>MIN(B2:B52)</f>
         <v>380</v>
       </c>
-      <c r="F2" t="str">
-        <f>_xlfn.XLOOKUP(E2,B2:B52,A2:A52)</f>
+      <c r="G2" t="str">
+        <f>_xlfn.XLOOKUP(F2,B2:B52,A2:A52)</f>
         <v>North Dakota</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="16">
         <v>1290</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="16">
         <v>40740</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="16">
         <v>2390</v>
       </c>
-      <c r="X5" s="11"/>
+      <c r="C5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AE5" s="11"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="16">
         <v>563070</v>
       </c>
-      <c r="X6" s="14"/>
+      <c r="C6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="25"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
@@ -3713,267 +3949,387 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="14"/>
       <c r="AL6" s="14"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AM6" s="14"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="16">
         <v>37000</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="16">
         <v>13350</v>
       </c>
-      <c r="X8" s="11"/>
+      <c r="C8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AE8" s="11"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="16">
         <v>3010</v>
       </c>
-      <c r="Y9" s="11"/>
+      <c r="C9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AE9" s="11"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="16">
         <v>3700</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="16">
         <v>95640</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="16">
         <v>34020</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="16">
         <v>14220</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="16">
         <v>3500</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="16">
         <v>36520</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="C15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="16">
         <v>10360</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="16">
         <v>3660</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="16">
         <v>4500</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="16">
         <v>4220</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="16">
         <v>3180</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="16">
         <v>3040</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="16">
         <v>25630</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="16">
         <v>30470</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="16">
         <v>17460</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="16">
         <v>15000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="16">
         <v>1310</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="16">
         <v>10050</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="16">
         <v>1650</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="16">
         <v>2710</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="16">
         <v>17380</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="16">
         <v>4000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="16">
         <v>47830</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="16">
         <v>4150</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="16">
         <v>51870</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="16">
         <v>25190</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="C35" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="16">
         <v>380</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="C36" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -3988,60 +4344,80 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="16">
         <v>21200</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="16">
         <v>7080</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="C38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="16">
         <v>30290</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="C39" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="25"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="16">
         <v>26770</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="16">
         <v>2550</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="C41" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="25"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
@@ -4058,112 +4434,156 @@
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="16">
         <v>7440</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C42" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="16">
         <v>680</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="C43" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="25"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="16">
         <v>12160</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="C44" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="K44" s="18"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="16">
         <v>80900</v>
       </c>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C45" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="16">
         <v>16480</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C46" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="16">
         <v>3370</v>
       </c>
-      <c r="V47" s="13"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="C47" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="W47" s="13"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="16">
         <v>30660</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C48" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="16">
         <v>66810</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C49" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="16">
         <v>1010</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C50" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="16">
         <v>9330</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="16">
         <v>510</v>
       </c>
-      <c r="K52" s="12"/>
+      <c r="C52" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="25"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -4172,8 +4592,9 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T52" s="12"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>60</v>
       </c>
@@ -4181,7 +4602,8 @@
         <f>SUM(B2:B52)</f>
         <v>1454480</v>
       </c>
-      <c r="K53" s="12"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="25"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
@@ -4190,14 +4612,16 @@
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D36:R36"/>
-    <mergeCell ref="D41:T41"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="E36:S36"/>
+    <mergeCell ref="E41:U41"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="E44:K44"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4660,6 +5084,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C64A56E9F85AC84187966BAEAF7CF07F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eddd1288b77279d5307efeffee2b0c10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b167cac-9da6-43f0-b7e7-4775de4a2f66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b766deccfdf7ce2c24ba1ca7005f2760" ns2:_="">
     <xsd:import namespace="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
@@ -4791,15 +5224,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
   <ds:schemaRefs>
@@ -4817,6 +5241,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1725E6-0B71-4243-81C7-4546CEACF239}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4832,12 +5264,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>